--- a/mapping_table/full mapping table.xlsx
+++ b/mapping_table/full mapping table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Information Studies Master\Master Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5AD69B-8DA8-4BB4-821D-33B3BBEA22F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97D770-969C-46CE-B6AE-BA6E53610D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4231,22 +4231,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" customWidth="1"/>
-    <col min="6" max="6" width="63.21875" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>412</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1093</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1094</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1095</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1096</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>337</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>211</v>
       </c>
